--- a/_hoaipt/ReactJS_Training_Schedule (1).xlsx
+++ b/_hoaipt/ReactJS_Training_Schedule (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>Training Outline</t>
   </si>
@@ -396,13 +396,10 @@
     <t>100/100</t>
   </si>
   <si>
+    <t>7/72019</t>
+  </si>
+  <si>
     <t>70/100</t>
-  </si>
-  <si>
-    <t>90/100</t>
-  </si>
-  <si>
-    <t>80/100</t>
   </si>
 </sst>
 </file>
@@ -834,6 +831,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,23 +876,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3924,82 +3921,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="24"/>
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="24"/>
       <c r="L3" s="23"/>
     </row>
     <row r="6" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="16"/>
@@ -4532,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5310,69 +5307,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="22.8">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="4" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="1" customFormat="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="42">
@@ -5430,17 +5427,17 @@
         <v>111</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L7" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5450,7 +5447,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="84" t="s">
@@ -5463,15 +5460,15 @@
         <v>111</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="78"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="85"/>
       <c r="I9" s="12" t="s">
         <v>110</v>
@@ -5488,15 +5485,15 @@
         <v>111</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L9" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5504,7 +5501,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="78"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="85"/>
       <c r="I10" s="12" t="s">
         <v>110</v>
@@ -5513,15 +5510,15 @@
         <v>111</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L10" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="52.8">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5529,9 +5526,9 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="85"/>
-      <c r="I11" s="88">
+      <c r="I11" s="69">
         <v>43472</v>
       </c>
       <c r="J11" s="12">
@@ -5545,8 +5542,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5554,9 +5551,9 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="78"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="85"/>
-      <c r="I12" s="88">
+      <c r="I12" s="69">
         <v>43472</v>
       </c>
       <c r="J12" s="12">
@@ -5570,8 +5567,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5579,9 +5576,9 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="79"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="85"/>
-      <c r="I13" s="88">
+      <c r="I13" s="69">
         <v>43472</v>
       </c>
       <c r="J13" s="12">
@@ -5593,10 +5590,10 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="76" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5606,25 +5603,25 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="85"/>
-      <c r="I14" s="88">
+      <c r="I14" s="69">
         <v>43472</v>
       </c>
       <c r="J14" s="12">
         <v>43592</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="81"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="87"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
@@ -5633,23 +5630,23 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="78"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="85"/>
-      <c r="I15" s="88">
+      <c r="I15" s="69">
         <v>43472</v>
       </c>
       <c r="J15" s="12">
         <v>43592</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="81"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="87"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
@@ -5658,23 +5655,23 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="78"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="85"/>
-      <c r="I16" s="88">
+      <c r="I16" s="69">
         <v>43472</v>
       </c>
       <c r="J16" s="12">
         <v>43592</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="87"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
@@ -5683,23 +5680,23 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="78"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="85"/>
-      <c r="I17" s="88">
+      <c r="I17" s="69">
         <v>43472</v>
       </c>
       <c r="J17" s="12">
         <v>43592</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="81"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="87"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
@@ -5708,23 +5705,23 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="85"/>
-      <c r="I18" s="88">
+      <c r="I18" s="69">
         <v>43472</v>
       </c>
       <c r="J18" s="12">
         <v>43592</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="87"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
@@ -5733,17 +5730,23 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="85"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="81"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="87"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
@@ -5752,17 +5755,23 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="78"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="85"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="81"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="87"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
@@ -5771,17 +5780,23 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="78"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="85"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="81"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="87"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
@@ -5790,17 +5805,23 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="78"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="85"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="81"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="87"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
@@ -5809,17 +5830,23 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="78"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="85"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="26.4">
-      <c r="B24" s="81"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="87"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
@@ -5828,17 +5855,23 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="85"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L24" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="81"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="87"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
@@ -5847,18 +5880,24 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="86"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L25" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5866,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5874,10 +5913,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="39.6">
-      <c r="B27" s="81">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="76" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5887,7 +5926,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5899,8 +5938,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5908,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>

--- a/_hoaipt/ReactJS_Training_Schedule (1).xlsx
+++ b/_hoaipt/ReactJS_Training_Schedule (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
   <si>
     <t>Training Outline</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>70/100</t>
+  </si>
+  <si>
+    <t>90/100</t>
+  </si>
+  <si>
+    <t>13/7/2019</t>
+  </si>
+  <si>
+    <t>18/7/2019</t>
+  </si>
+  <si>
+    <t>40/100</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -852,44 +864,47 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4529,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5434,10 +5449,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="81">
+      <c r="B8" s="82">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5447,10 +5462,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="76" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -5467,8 +5482,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5476,8 +5491,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="12" t="s">
         <v>110</v>
       </c>
@@ -5492,8 +5507,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="82"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5501,8 +5516,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="12" t="s">
         <v>110</v>
       </c>
@@ -5517,8 +5532,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="52.8">
-      <c r="B11" s="82"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5526,8 +5541,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="69">
         <v>43472</v>
       </c>
@@ -5542,8 +5557,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="82"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5551,8 +5566,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="69">
         <v>43472</v>
       </c>
@@ -5567,8 +5582,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5576,8 +5591,8 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="69">
         <v>43472</v>
       </c>
@@ -5590,10 +5605,10 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="81">
+      <c r="B14" s="82">
         <v>4</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="85" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5603,10 +5618,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="69">
         <v>43472</v>
       </c>
@@ -5621,8 +5636,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5630,8 +5645,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="69">
         <v>43472</v>
       </c>
@@ -5646,8 +5661,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5655,8 +5670,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="69">
         <v>43472</v>
       </c>
@@ -5671,8 +5686,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5680,8 +5695,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="69">
         <v>43472</v>
       </c>
@@ -5696,8 +5711,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="82"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5705,8 +5720,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="85"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="69">
         <v>43472</v>
       </c>
@@ -5721,8 +5736,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5730,8 +5745,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="12" t="s">
         <v>113</v>
       </c>
@@ -5739,15 +5754,15 @@
         <v>43776</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="82"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5755,8 +5770,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="12" t="s">
         <v>113</v>
       </c>
@@ -5764,15 +5779,15 @@
         <v>43776</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5780,8 +5795,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="12" t="s">
         <v>113</v>
       </c>
@@ -5789,15 +5804,15 @@
         <v>43776</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="82"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5805,8 +5820,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="12" t="s">
         <v>113</v>
       </c>
@@ -5814,15 +5829,15 @@
         <v>43776</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="82"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5830,8 +5845,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="12" t="s">
         <v>113</v>
       </c>
@@ -5839,15 +5854,15 @@
         <v>43776</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="26.4">
-      <c r="B24" s="82"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5855,8 +5870,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="12" t="s">
         <v>113</v>
       </c>
@@ -5864,15 +5879,15 @@
         <v>43776</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L24" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="82"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5880,8 +5895,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="86"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="12" t="s">
         <v>113</v>
       </c>
@@ -5889,15 +5904,15 @@
         <v>43776</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="77"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5905,18 +5920,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="57"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="39.6">
-      <c r="B27" s="82">
+      <c r="B27" s="83">
         <v>5</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="85" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5926,20 +5947,26 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="79" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="L27" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="83"/>
-      <c r="C28" s="77"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5947,10 +5974,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="80"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="89"/>
       <c r="K28" s="12"/>
       <c r="L28" s="50"/>
     </row>
@@ -6034,6 +6061,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6049,12 +6082,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_hoaipt/ReactJS_Training_Schedule (1).xlsx
+++ b/_hoaipt/ReactJS_Training_Schedule (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
   <si>
     <t>Training Outline</t>
   </si>
@@ -399,19 +399,10 @@
     <t>7/72019</t>
   </si>
   <si>
-    <t>70/100</t>
-  </si>
-  <si>
-    <t>90/100</t>
-  </si>
-  <si>
-    <t>13/7/2019</t>
-  </si>
-  <si>
-    <t>18/7/2019</t>
-  </si>
-  <si>
-    <t>40/100</t>
+    <t>20/7/2019</t>
+  </si>
+  <si>
+    <t>25/7/2019</t>
   </si>
 </sst>
 </file>
@@ -846,6 +837,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,6 +858,30 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,38 +891,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3936,82 +3927,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="24"/>
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="24"/>
       <c r="L3" s="23"/>
     </row>
     <row r="6" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72" t="s">
+      <c r="F6" s="73"/>
+      <c r="G6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="16"/>
@@ -4544,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5322,69 +5313,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="22.8">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="4" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="1" customFormat="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="42">
@@ -5465,7 +5456,7 @@
       <c r="G8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="85" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -5492,7 +5483,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="80"/>
-      <c r="H9" s="77"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="12" t="s">
         <v>110</v>
       </c>
@@ -5517,7 +5508,7 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="80"/>
-      <c r="H10" s="77"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="12" t="s">
         <v>110</v>
       </c>
@@ -5542,7 +5533,7 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="80"/>
-      <c r="H11" s="77"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="69">
         <v>43472</v>
       </c>
@@ -5567,7 +5558,7 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="80"/>
-      <c r="H12" s="77"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="69">
         <v>43472</v>
       </c>
@@ -5592,7 +5583,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="77"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="69">
         <v>43472</v>
       </c>
@@ -5608,7 +5599,7 @@
       <c r="B14" s="82">
         <v>4</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="77" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5621,7 +5612,7 @@
       <c r="G14" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="69">
         <v>43472</v>
       </c>
@@ -5637,7 +5628,7 @@
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
       <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5646,7 +5637,7 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="80"/>
-      <c r="H15" s="77"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="69">
         <v>43472</v>
       </c>
@@ -5662,7 +5653,7 @@
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
       <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5671,7 +5662,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="80"/>
-      <c r="H16" s="77"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="69">
         <v>43472</v>
       </c>
@@ -5687,7 +5678,7 @@
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
       <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5696,7 +5687,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="80"/>
-      <c r="H17" s="77"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="69">
         <v>43472</v>
       </c>
@@ -5712,7 +5703,7 @@
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
       <c r="B18" s="83"/>
-      <c r="C18" s="86"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5721,7 +5712,7 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="80"/>
-      <c r="H18" s="77"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="69">
         <v>43472</v>
       </c>
@@ -5737,7 +5728,7 @@
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
       <c r="B19" s="83"/>
-      <c r="C19" s="86"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5746,7 +5737,7 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="80"/>
-      <c r="H19" s="77"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="12" t="s">
         <v>113</v>
       </c>
@@ -5762,7 +5753,7 @@
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
       <c r="B20" s="83"/>
-      <c r="C20" s="86"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5771,7 +5762,7 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="80"/>
-      <c r="H20" s="77"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="12" t="s">
         <v>113</v>
       </c>
@@ -5787,7 +5778,7 @@
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
       <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5796,7 +5787,7 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="80"/>
-      <c r="H21" s="77"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="12" t="s">
         <v>113</v>
       </c>
@@ -5812,7 +5803,7 @@
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
       <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5821,7 +5812,7 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="80"/>
-      <c r="H22" s="77"/>
+      <c r="H22" s="86"/>
       <c r="I22" s="12" t="s">
         <v>113</v>
       </c>
@@ -5837,7 +5828,7 @@
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
       <c r="B23" s="83"/>
-      <c r="C23" s="86"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5846,7 +5837,7 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="80"/>
-      <c r="H23" s="77"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="12" t="s">
         <v>113</v>
       </c>
@@ -5862,7 +5853,7 @@
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="26.4">
       <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5871,7 +5862,7 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="80"/>
-      <c r="H24" s="77"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="12" t="s">
         <v>113</v>
       </c>
@@ -5887,7 +5878,7 @@
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
       <c r="B25" s="83"/>
-      <c r="C25" s="86"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5896,15 +5887,15 @@
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="80"/>
-      <c r="H25" s="78"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="12">
-        <v>43776</v>
+        <v>114</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>85</v>
@@ -5912,7 +5903,7 @@
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
       <c r="B26" s="83"/>
-      <c r="C26" s="87"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5923,13 +5914,13 @@
       <c r="G26" s="81"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="89" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -5937,7 +5928,7 @@
       <c r="B27" s="83">
         <v>5</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="77" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5952,13 +5943,13 @@
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="89" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L27" s="50" t="s">
         <v>89</v>
@@ -5966,7 +5957,7 @@
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
       <c r="B28" s="84"/>
-      <c r="C28" s="87"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5977,7 +5968,7 @@
       <c r="G28" s="81"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="89"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="12"/>
       <c r="L28" s="50"/>
     </row>
@@ -6061,12 +6052,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6082,6 +6067,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>
